--- a/outputs-HGR-r202-archive/g__UBA9502.xlsx
+++ b/outputs-HGR-r202-archive/g__UBA9502.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,74 +489,36 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53012.fa</t>
+          <t>even_MAG-GUT9612.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09830901872077448</v>
+        <v>0.1221393154258975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0623654322974297</v>
+        <v>0.1335219283002912</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007021998858622906</v>
+        <v>0.003794458661895592</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5954200374903558</v>
+        <v>0.2610037442156314</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2368835126327949</v>
+        <v>0.479540553396255</v>
       </c>
       <c r="G2" t="n">
-        <v>2.227527827920354e-14</v>
+        <v>2.931964215945157e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5954200374903558</v>
+        <v>0.479540553396255</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>s__UBA9502 sp900538475</t>
+          <t>s__UBA9502 sp900540335</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>s__UBA9502 sp900538475</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9612.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1221393154258975</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1335219283002912</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.003794458661895592</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2610037442156314</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.479540553396255</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.931964215945157e-14</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.479540553396255</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>s__UBA9502 sp900540335</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>s__UBA9502 sp900540335(reject)</t>
         </is>
